--- a/Docs/Sprint Backlog com Casos de Uso.xlsx
+++ b/Docs/Sprint Backlog com Casos de Uso.xlsx
@@ -19,6 +19,357 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modelar conta corrente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modelar Pagamentos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modelar pagamento boleto – 4h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modelar Taxa – 2h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modelar  Empréstimo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View – 4h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model – 6h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modelar Investimento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modelar Movimentação – 4h</t>
+    </r>
+  </si>
+  <si>
+    <t>DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>TEMPO</t>
+  </si>
+  <si>
+    <t>PRIORIDADE</t>
+  </si>
+  <si>
+    <t>CASO DE USO</t>
+  </si>
+  <si>
+    <t>2H</t>
+  </si>
+  <si>
+    <r>
+      <t>2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Modelo de Banco de Dados </t>
+    </r>
+  </si>
+  <si>
+    <t>1H</t>
+  </si>
+  <si>
+    <t>6H</t>
+  </si>
+  <si>
+    <t>4H</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Diagrama de Classe </t>
+    </r>
+  </si>
+  <si>
+    <t>c.     Roteiro de teste</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               a. Roteiro de teste</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>12H</t>
+  </si>
+  <si>
+    <t>3H</t>
+  </si>
+  <si>
+    <t>7H</t>
+  </si>
+  <si>
+    <t>~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~</t>
+  </si>
+  <si>
+    <t>Uma pessoa que tem uma conta corrente</t>
+  </si>
+  <si>
+    <t>Uma conta corrente pertencente a uma pessoa, que pode fazer empréstimos e investimentos</t>
+  </si>
+  <si>
+    <t>Uma pessoa deseja acessar sua conta corrente através da internet</t>
+  </si>
+  <si>
+    <t>Uma conta corrente tem saldo, limite, uma indentificação e pode acessar funcionalidades atribuídas a elas</t>
+  </si>
+  <si>
+    <t>O gerente do banco deseja visualizar valores de entrada e saída de empréstimos e investimentos</t>
+  </si>
+  <si>
+    <t>Uma conta corrente pode realizar os pagamentos de seus empréstimos por débito em conta ou por boleto</t>
+  </si>
+  <si>
+    <t>Um banco pode atribuir diferentes taxas para empréstimos e investimentos</t>
+  </si>
+  <si>
+    <t>Uma conta corrente pode fazer empréstimos diferentes, com diferentes taxas e valores</t>
+  </si>
+  <si>
+    <t>Um investimento pode ser pós fixado, com taxas que variam conforme a legislação ou pré fixada que é predatado um prazo mínimo para realziar a retirada do investimento e as taxas são fixadas no início do contrato, caso o prazo mínimo não seja respeitado as taxas serão conforme a legislação</t>
+  </si>
+  <si>
+    <t>Para o banco visualizar as movimentações geradas em sua conta contábil, ele precisa verificar as movimentações onde fica descrito a conta de entrada, destino, ação e valor.</t>
+  </si>
+  <si>
+    <t>Sprint Backlog</t>
+  </si>
+  <si>
+    <r>
       <t>4-</t>
     </r>
     <r>
@@ -38,12 +389,36 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Modelar Pessoa – 1h</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5-</t>
+      <t xml:space="preserve">Modelar Pessoa </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Login </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
     </r>
     <r>
       <rPr>
@@ -62,7 +437,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Modelar conta corrente</t>
+      <t xml:space="preserve">Back e front-end da conta corrente </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Modelar conta contábil </t>
     </r>
   </si>
   <si>
@@ -86,407 +485,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Login – 1h</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Back e front-end da conta corrente – 4h</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Modelar conta contábil – 2h</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Modelar Pagamentos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Modelar pagamento conta – 2h</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Modelar pagamento boleto – 4h</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Modelar Taxa – 2h</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Modelar  Empréstimo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>View – 4h</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Model – 6h</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Modelar Investimento</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Modelar Movimentação – 4h</t>
-    </r>
-  </si>
-  <si>
-    <t>DESCRIÇÃO</t>
-  </si>
-  <si>
-    <t>TEMPO</t>
-  </si>
-  <si>
-    <t>PRIORIDADE</t>
-  </si>
-  <si>
-    <t>CASO DE USO</t>
-  </si>
-  <si>
-    <t>2H</t>
-  </si>
-  <si>
-    <r>
-      <t>2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Modelo de Banco de Dados </t>
-    </r>
-  </si>
-  <si>
-    <t>1H</t>
-  </si>
-  <si>
-    <t>6H</t>
-  </si>
-  <si>
-    <t>4H</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Diagrama de Classe </t>
-    </r>
-  </si>
-  <si>
-    <t>c.     Roteiro de teste</t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               a. Roteiro de teste</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>12H</t>
-  </si>
-  <si>
-    <t>3H</t>
-  </si>
-  <si>
-    <t>7H</t>
-  </si>
-  <si>
-    <t>~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~</t>
-  </si>
-  <si>
-    <t>Uma pessoa que tem uma conta corrente</t>
-  </si>
-  <si>
-    <t>Uma conta corrente pertencente a uma pessoa, que pode fazer empréstimos e investimentos</t>
-  </si>
-  <si>
-    <t>Uma pessoa deseja acessar sua conta corrente através da internet</t>
-  </si>
-  <si>
-    <t>Uma conta corrente tem saldo, limite, uma indentificação e pode acessar funcionalidades atribuídas a elas</t>
-  </si>
-  <si>
-    <t>O gerente do banco deseja visualizar valores de entrada e saída de empréstimos e investimentos</t>
-  </si>
-  <si>
-    <t>Uma conta corrente pode realizar os pagamentos de seus empréstimos por débito em conta ou por boleto</t>
-  </si>
-  <si>
-    <t>Um banco pode atribuir diferentes taxas para empréstimos e investimentos</t>
-  </si>
-  <si>
-    <t>Uma conta corrente pode fazer empréstimos diferentes, com diferentes taxas e valores</t>
-  </si>
-  <si>
-    <t>Um investimento pode ser pós fixado, com taxas que variam conforme a legislação ou pré fixada que é predatado um prazo mínimo para realziar a retirada do investimento e as taxas são fixadas no início do contrato, caso o prazo mínimo não seja respeitado as taxas serão conforme a legislação</t>
-  </si>
-  <si>
-    <t>Para o banco visualizar as movimentações geradas em sua conta contábil, ele precisa verificar as movimentações onde fica descrito a conta de entrada, destino, ação e valor.</t>
-  </si>
-  <si>
-    <t>Sprint Backlog</t>
+      <t xml:space="preserve">Modelar pagamento conta </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -593,21 +593,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -906,7 +934,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,338 +947,338 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>17</v>
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>31</v>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>31</v>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>32</v>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>36</v>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>37</v>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="6">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
-        <v>38</v>
+      <c r="D16" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
-        <v>39</v>
+      <c r="D18" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
-        <v>40</v>
+      <c r="D22" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
-        <v>41</v>
+      <c r="D26" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Sprint Backlog com Casos de Uso.xlsx
+++ b/Docs/Sprint Backlog com Casos de Uso.xlsx
@@ -525,7 +525,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,6 +561,15 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -570,7 +579,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -614,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -624,12 +633,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -657,9 +660,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,12 +1017,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1029,66 +1039,66 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1"/>
@@ -1097,10 +1107,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1"/>
@@ -1109,7 +1119,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1121,21 +1131,21 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1147,10 +1157,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="3">
@@ -1161,7 +1171,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1173,10 +1183,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="1"/>
@@ -1185,7 +1195,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1197,10 +1207,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="3">
@@ -1210,8 +1220,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1222,11 +1232,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="3">
@@ -1236,8 +1246,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="5"/>
@@ -1246,8 +1256,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="5"/>
@@ -1256,8 +1266,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1268,22 +1278,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1294,8 +1304,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1305,35 +1315,36 @@
       <c r="D24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="16"/>
+      <c r="C25" s="14"/>
       <c r="D25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1344,22 +1355,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="3">
         <v>4</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1368,8 +1379,8 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1378,8 +1389,8 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -1388,8 +1399,8 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -1397,13 +1408,13 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="6"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="A35" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
